--- a/Resultado.xlsx
+++ b/Resultado.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Valores</t>
   </si>
@@ -21,6 +21,18 @@
   </si>
   <si>
     <t>Rango</t>
+  </si>
+  <si>
+    <t>PLATINUM</t>
+  </si>
+  <si>
+    <t>BASIC</t>
+  </si>
+  <si>
+    <t>PREMIUM</t>
+  </si>
+  <si>
+    <t>GOLD</t>
   </si>
 </sst>
 </file>
@@ -66,7 +78,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -74,7 +86,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="15.401906967163086" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.188366889953613" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -88,6 +100,138 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.47058824</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>125</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>-4</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.47058824</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>123</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>45</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>-15</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>37</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.7222222</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Resultado.xlsx
+++ b/Resultado.xlsx
@@ -12,27 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Valores</t>
-  </si>
-  <si>
-    <t>Grado de verdad</t>
-  </si>
-  <si>
-    <t>Rango</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>BASIC</t>
+  </si>
+  <si>
+    <t>PREMIUM</t>
   </si>
   <si>
     <t>PLATINUM</t>
   </si>
   <si>
-    <t>BASIC</t>
-  </si>
-  <si>
-    <t>PREMIUM</t>
-  </si>
-  <si>
     <t>GOLD</t>
+  </si>
+  <si>
+    <t>δ</t>
   </si>
 </sst>
 </file>
@@ -78,15 +75,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.401906967163086" customWidth="1"/>
-    <col min="3" max="3" width="10.188366889953613" customWidth="1"/>
+    <col min="2" max="2" width="13.273931503295898" customWidth="1"/>
+    <col min="3" max="3" width="13.273931503295898" customWidth="1"/>
+    <col min="4" max="4" width="13.273931503295898" customWidth="1"/>
+    <col min="5" max="5" width="13.273931503295898" customWidth="1"/>
+    <col min="6" max="6" width="10.188366889953613" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -99,15 +99,33 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
         <v>23</v>
       </c>
       <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
         <v>0.47058824</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -118,8 +136,17 @@
       <c r="B3" s="0">
         <v>0</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>4</v>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -129,8 +156,17 @@
       <c r="B4" s="0">
         <v>0.6</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -140,8 +176,17 @@
       <c r="B5" s="0">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>4</v>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -149,10 +194,19 @@
         <v>17</v>
       </c>
       <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
         <v>0.375</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>5</v>
+      <c r="D6" s="0">
+        <v>0.11764706</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -160,9 +214,18 @@
         <v>23</v>
       </c>
       <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
         <v>0.47058824</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -173,8 +236,17 @@
       <c r="B8" s="0">
         <v>0</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>4</v>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -182,10 +254,19 @@
         <v>18</v>
       </c>
       <c r="B9" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0">
         <v>0.25</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>5</v>
+      <c r="D9" s="0">
+        <v>0.1764706</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -193,10 +274,19 @@
         <v>45</v>
       </c>
       <c r="B10" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.2777778</v>
+      </c>
+      <c r="E10" s="0">
         <v>0.8</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>6</v>
+      <c r="F10" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -206,8 +296,17 @@
       <c r="B11" s="0">
         <v>0</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>4</v>
+      <c r="C11" s="0">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -217,8 +316,17 @@
       <c r="B12" s="0">
         <v>0.3</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>4</v>
+      <c r="C12" s="0">
+        <v>0.2857143</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -226,9 +334,18 @@
         <v>37</v>
       </c>
       <c r="B13" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
         <v>0.7222222</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="E13" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Resultado.xlsx
+++ b/Resultado.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Medias</t>
+  </si>
   <si>
     <t>T</t>
   </si>
@@ -75,16 +78,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.841174125671387" customWidth="1"/>
     <col min="2" max="2" width="13.273931503295898" customWidth="1"/>
-    <col min="3" max="3" width="13.273931503295898" customWidth="1"/>
-    <col min="4" max="4" width="13.273931503295898" customWidth="1"/>
+    <col min="3" max="3" width="14.367587089538574" customWidth="1"/>
+    <col min="4" max="4" width="14.367587089538574" customWidth="1"/>
     <col min="5" max="5" width="13.273931503295898" customWidth="1"/>
     <col min="6" max="6" width="10.188366889953613" customWidth="1"/>
   </cols>
@@ -93,51 +96,48 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="0">
+        <v>-15</v>
+      </c>
+      <c r="C1" s="0">
+        <v>-5</v>
+      </c>
+      <c r="D1" s="0">
+        <v>9.5</v>
+      </c>
+      <c r="E1" s="0">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>23</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.47058824</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
@@ -146,7 +146,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -154,10 +154,10 @@
         <v>-4</v>
       </c>
       <c r="B4" s="0">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -166,61 +166,61 @@
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.72727275</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.11764706</v>
+        <v>0.90909094</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>23</v>
+        <v>-11.45</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>0.28999996</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>0.35500002</v>
       </c>
       <c r="D7" s="0">
-        <v>0.47058824</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -231,7 +231,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -243,55 +243,55 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>18</v>
+        <v>3.5</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D9" s="0">
-        <v>0.1764706</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>45</v>
+        <v>2.28</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>0.272</v>
       </c>
       <c r="D10" s="0">
-        <v>0.2777778</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-15</v>
+        <v>13.4</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -300,52 +300,112 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>0.29090917</v>
       </c>
       <c r="E11" s="0">
-        <v>0</v>
+        <v>0.21538456</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>7</v>
+        <v>15.6</v>
       </c>
       <c r="B12" s="0">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>0.2857143</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>0.55384624</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>37</v>
+        <v>-12</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.7222222</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>9.45</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.99090904</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>-45</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>4.32</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.06799998</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.05818185</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>3</v>
       </c>
     </row>
